--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,241 +49,253 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>returned</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>could</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>product</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>much</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
@@ -295,27 +307,27 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>enjoyable</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -343,16 +355,22 @@
     <t>friends</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -713,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -824,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <v>52</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8571428571428571</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K7">
         <v>0.625</v>
@@ -1032,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K8">
-        <v>0.53125</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.765625</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K9">
-        <v>0.5094339622641509</v>
+        <v>0.453125</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K10">
         <v>0.391304347826087</v>
@@ -1182,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7311827956989247</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>0.3377049180327869</v>
@@ -1232,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7087378640776699</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>0.2898134863701578</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L12">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M12">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6901408450704225</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K13">
-        <v>0.2551867219917012</v>
+        <v>0.2468879668049793</v>
       </c>
       <c r="L13">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6818181818181818</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>0.2083333333333333</v>
@@ -1382,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6578947368421053</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K15">
-        <v>0.2048192771084337</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6386554621848739</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K16">
-        <v>0.1590214067278287</v>
+        <v>0.1804281345565749</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6351351351351351</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K17">
         <v>0.1171875</v>
@@ -1532,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6190476190476191</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>0.1164021164021164</v>
@@ -1582,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K19">
-        <v>0.08602150537634409</v>
+        <v>0.08939526730937773</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>170</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20">
+        <v>0.08835341365461848</v>
+      </c>
+      <c r="L20">
         <v>22</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
       <c r="M20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K21">
-        <v>0.08150744960560911</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1048</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K22">
-        <v>0.03763789746917586</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1483</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5428571428571428</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,7 +1818,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23">
+        <v>0.03311688311688311</v>
+      </c>
+      <c r="L23">
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <v>52</v>
+      </c>
+      <c r="N23">
+        <v>0.98</v>
+      </c>
+      <c r="O23">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1489</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1808,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1826,7 +1868,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24">
+        <v>0.02396804260985353</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>0.95</v>
+      </c>
+      <c r="O24">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1834,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4840579710144928</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C27">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1912,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4578313253012048</v>
+        <v>0.453125</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1930,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1938,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4489795918367347</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1956,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1964,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1982,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1990,13 +2056,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4186046511627907</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2008,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2016,13 +2082,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4094488188976378</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2034,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2042,13 +2108,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.40625</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2060,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2068,13 +2134,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3888888888888889</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2086,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2094,13 +2160,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3833333333333334</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2112,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2120,13 +2186,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3809523809523809</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2146,13 +2212,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3707865168539326</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2164,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2172,13 +2238,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3454545454545455</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2190,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2198,13 +2264,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3442622950819672</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2216,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2224,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3368421052631579</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2242,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2250,13 +2316,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3275862068965517</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2268,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2279,10 +2345,10 @@
         <v>0.3125</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2294,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2302,13 +2368,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3069306930693069</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2320,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2328,13 +2394,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2962962962962963</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2346,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2354,13 +2420,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2959183673469388</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2372,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2380,13 +2446,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2890625</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2398,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2406,13 +2472,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2857142857142857</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2424,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2432,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.282051282051282</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2450,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2458,13 +2524,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2731958762886598</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2476,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2484,13 +2550,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2502,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2510,13 +2576,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2559241706161137</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2528,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2536,7 +2602,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2388059701492537</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -2554,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2562,13 +2628,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2307692307692308</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2580,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2588,13 +2654,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.211864406779661</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2606,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2614,13 +2680,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2027027027027027</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2632,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2666,13 +2732,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1847826086956522</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C57">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2684,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2692,25 +2758,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.180379746835443</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>259</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2718,25 +2784,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1768202080237742</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C59">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>554</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2770,13 +2836,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.17</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2788,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2799,10 +2865,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2814,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2822,13 +2888,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1656050955414013</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2840,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2848,13 +2914,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1645569620253164</v>
+        <v>0.15625</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2866,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>264</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2874,13 +2940,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1495327102803738</v>
+        <v>0.145</v>
       </c>
       <c r="C65">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2892,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2900,13 +2966,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1428571428571428</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2918,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2926,13 +2992,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1384615384615385</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2944,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2952,13 +3018,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1371428571428571</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2970,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2978,13 +3044,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.125</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2996,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>112</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3004,13 +3070,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1211453744493392</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3022,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>399</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3030,13 +3096,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1209677419354839</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3048,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>218</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3056,13 +3122,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1151832460732984</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3074,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3082,13 +3148,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1149425287356322</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3100,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>308</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3108,13 +3174,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1147540983606557</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3126,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>162</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3134,13 +3200,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.109375</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3152,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3160,25 +3226,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1068493150684932</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>326</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3186,13 +3252,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1038961038961039</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3204,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3212,13 +3278,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.101123595505618</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3230,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>240</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3238,13 +3304,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08465608465608465</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3256,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3264,13 +3330,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.07605633802816901</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C80">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3282,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>328</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3290,13 +3356,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.066815144766147</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3308,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>419</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3316,25 +3382,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.06260296540362438</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C82">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F82">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>569</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3342,25 +3408,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05714285714285714</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>264</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3368,25 +3434,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04662004662004662</v>
+        <v>0.0625</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E84">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,25 +3460,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.03045685279187817</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>764</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3420,25 +3486,129 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02595419847328244</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="C86">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>0.21</v>
+      </c>
+      <c r="F86">
+        <v>0.79</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.03962703962703962</v>
+      </c>
+      <c r="C88">
         <v>17</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <v>17</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>638</v>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.03034134007585335</v>
+      </c>
+      <c r="C89">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>0.11</v>
+      </c>
+      <c r="F89">
+        <v>0.89</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.02599388379204893</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>0.06</v>
+      </c>
+      <c r="F90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
